--- a/LoraTTNMapper/Documentation/GPIO Ports.xlsx
+++ b/LoraTTNMapper/Documentation/GPIO Ports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTv060\Desktop\Projects\LoraTTNMapper\LoraTTNMapper\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEE2FAC-5588-462B-99F1-B9B71179967C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8926FA-E4BF-471F-BFBB-349A11A3F44E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>GPS</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>Extension</t>
+  </si>
+  <si>
+    <t>Power Rail 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiederstände </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +93,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,13 +135,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,19 +426,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -413,152 +449,180 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>34</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
